--- a/data/demandes.xlsx
+++ b/data/demandes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,41 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20250523_084920</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-05-23 08:49:20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elie</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'chantier': 'Atelier A', 'urgence': 'Normal', 'date_souhaitee': '2025-05-23', 'produits': {'102938475738883': {'produit': 'Parclose', 'quantite': 1, 'emplacement': 'Stockage'}}}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En attente</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/demandes.xlsx
+++ b/data/demandes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,12 +602,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Approuvée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-05-23 09:04:01</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Magasinier</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Demande approuvée et stock mis à jour</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20250523_093023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-05-23 09:30:23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elie</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'chantier': 'Maintenance', 'urgence': 'Normal', 'date_souhaitee': '2025-05-23', 'produits': {'TS001': {'produit': 'Tournevis cruciforme', 'quantite': 2, 'emplacement': 'Atelier B'}, 'MH001': {'produit': 'Marteau 500g', 'quantite': 6, 'emplacement': 'Atelier B'}}}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>En attente</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/demandes.xlsx
+++ b/data/demandes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,155 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20250526_101139</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-05-26 10:11:39</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Isabelle Roux</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'chantier': 'Métallerie - Table Métal 08', 'urgence': 'Normal', 'date_souhaitee': '2025-05-26', 'produits': {2938475610: {'produit': 'Marteau 500g', 'quantite': 4, 'emplacement': 'Atelier B'}, 6574839202: {'produit': 'Vis 8x60mm', 'quantite': 1, 'emplacement': 'Stockage'}, 1928374650: {'produit': 'Clé à molette', 'quantite': 4, 'emplacement': 'Atelier B'}}}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pvc04
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Refusée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:10:32</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Magasinier</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20250526_112800</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:28:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sophie Leroy</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'chantier': 'PVC - Table PVC 04', 'urgence': 'Normal', 'date_souhaitee': '2025-05-26', 'produits': {1928374650: {'produit': 'Clé à molette', 'quantite': 5, 'emplacement': 'Atelier B'}}}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En attente</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20250526_113412</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:34:12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Marie Martin</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'chantier': 'Aluminium - Table Aluminium 02', 'urgence': 'Normal', 'date_souhaitee': '2025-05-26', 'produits': {2938475610: {'produit': 'Marteau 500g', 'quantite': 4, 'emplacement': 'Atelier B'}, 8473926150: {'produit': 'Tournevis cruciforme', 'quantite': 4, 'emplacement': 'Atelier A'}, 9182736450: {'produit': 'Perceuse sans fil', 'quantite': 2, 'emplacement': 'Atelier A'}}}</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En attente</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20250526_122347</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-05-26 12:23:47</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Marie Martin</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'chantier': 'Aluminium - Table Aluminium 02', 'urgence': 'Normal', 'date_souhaitee': '2025-05-26', 'produits': {7465839201: {'produit': 'Pince coupante', 'quantite': 40, 'emplacement': 'Atelier B'}}}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En attente</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/demandes.xlsx
+++ b/data/demandes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,198 +483,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20250523_135455</t>
+          <t>20250526_133307</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-23 13:54:55</t>
+          <t>2025-05-26 13:33:07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Elie</t>
+          <t>Marie Martin</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'chantier': 'table 1', 'urgence': 'Normal', 'date_souhaitee': '2025-05-23', 'produits': {5647382910: {'produit': 'Vis 6x50mm', 'quantite': 1, 'emplacement': 'Stockage'}, 8473926150: {'produit': 'Tournevis cruciforme', 'quantite': 1, 'emplacement': 'Atelier A'}, 1928374650: {'produit': 'Clé à molette', 'quantite': 9, 'emplacement': 'Atelier B'}}}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
+          <t>{'chantier': 'Aluminium - Table Aluminium 02', 'urgence': 'Normal', 'date_souhaitee': '2025-05-26', 'produits': {'2140736376': {'produit': 'Crémone OB F8 mm P220  600/900 20093009', 'quantite': 4, 'emplacement': 'E1'}}}</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Approuvée</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-05-23 13:55:25</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>magasinier</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Demande approuvée et stock mis à jour</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>20250526_101139</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-05-26 10:11:39</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Isabelle Roux</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>{'chantier': 'Métallerie - Table Métal 08', 'urgence': 'Normal', 'date_souhaitee': '2025-05-26', 'produits': {2938475610: {'produit': 'Marteau 500g', 'quantite': 4, 'emplacement': 'Atelier B'}, 6574839202: {'produit': 'Vis 8x60mm', 'quantite': 1, 'emplacement': 'Stockage'}, 1928374650: {'produit': 'Clé à molette', 'quantite': 4, 'emplacement': 'Atelier B'}}}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">pvc04
-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Refusée</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-05-26 12:10:32</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Magasinier</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>20250526_112800</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-05-26 11:28:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sophie Leroy</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>{'chantier': 'PVC - Table PVC 04', 'urgence': 'Normal', 'date_souhaitee': '2025-05-26', 'produits': {1928374650: {'produit': 'Clé à molette', 'quantite': 5, 'emplacement': 'Atelier B'}}}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>En attente</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20250526_113412</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-05-26 11:34:12</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Marie Martin</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>{'chantier': 'Aluminium - Table Aluminium 02', 'urgence': 'Normal', 'date_souhaitee': '2025-05-26', 'produits': {2938475610: {'produit': 'Marteau 500g', 'quantite': 4, 'emplacement': 'Atelier B'}, 8473926150: {'produit': 'Tournevis cruciforme', 'quantite': 4, 'emplacement': 'Atelier A'}, 9182736450: {'produit': 'Perceuse sans fil', 'quantite': 2, 'emplacement': 'Atelier A'}}}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En attente</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20250526_122347</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-05-26 12:23:47</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Marie Martin</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>{'chantier': 'Aluminium - Table Aluminium 02', 'urgence': 'Normal', 'date_souhaitee': '2025-05-26', 'produits': {7465839201: {'produit': 'Pince coupante', 'quantite': 40, 'emplacement': 'Atelier B'}}}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En attente</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/demandes.xlsx
+++ b/data/demandes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,37 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20250527_095356</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-05-27 09:53:56</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Marie Martin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'chantier': 'Aluminium - Table Aluminium 02', 'urgence': 'Normal', 'date_souhaitee': '2025-05-27', 'produits': {'3813399991': {'produit': 'CYLINDRE RX 60 30X30 NICK MAT VARIE ', 'quantite': 1, 'emplacement': 'A11'}}}</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>En attente</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/demandes.xlsx
+++ b/data/demandes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,49 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20250528_125253</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-05-28 12:52:53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Marie Martin</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'chantier': 'Aluminium - Table Aluminium 02', 'urgence': 'Normal', 'date_souhaitee': '2025-05-28', 'produits': {'3119066359': {'produit': 'Crémone F8 Variable  L400 380-620', 'quantite': 9, 'emplacement': 'E2'}, '3032359406': {'produit': 'SPT/16-4,3X22-GS', 'quantite': 4, 'emplacement': 'G35'}}}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Approuvée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-05-28 12:58:22</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>elie</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Demande approuvée et stock mis à jour</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
